--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_14.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_14.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Hideki Hayashi</t>
+          <t>Momoko Inoue</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
